--- a/SMO/TemplateExcel/TONG_HOP_KE_HOACH_CHI_NHANH.xlsx
+++ b/SMO/TemplateExcel/TONG_HOP_KE_HOACH_CHI_NHANH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0207EE-EA99-445E-A543-46E7C29172E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A09797D-2906-472E-BC5D-7C0325033B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7FDF6A2F-70B3-45E6-A041-9018DF3A571A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7FDF6A2F-70B3-45E6-A041-9018DF3A571A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -335,7 +335,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,9 +410,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -449,6 +446,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
@@ -456,6 +480,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -465,37 +492,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -513,6 +513,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -962,24 +967,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="12" style="23" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="23" customWidth="1"/>
-    <col min="5" max="5" width="17" style="23" customWidth="1"/>
-    <col min="6" max="7" width="13" style="23" customWidth="1"/>
-    <col min="8" max="8" width="15" style="23" customWidth="1"/>
-    <col min="9" max="10" width="11.5703125" style="23"/>
-    <col min="11" max="11" width="7.5703125" style="23" customWidth="1"/>
-    <col min="12" max="16384" width="11.5703125" style="23"/>
+    <col min="1" max="1" width="6.140625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="12" style="22" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="17" style="22" customWidth="1"/>
+    <col min="6" max="7" width="13" style="22" customWidth="1"/>
+    <col min="8" max="8" width="15" style="22" customWidth="1"/>
+    <col min="9" max="10" width="11.5703125" style="22"/>
+    <col min="11" max="11" width="7.5703125" style="22" customWidth="1"/>
+    <col min="12" max="16384" width="11.5703125" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
@@ -1045,15 +1050,15 @@
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="21" customHeight="1">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1062,15 +1067,15 @@
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" s="12" customFormat="1" ht="15.75">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -1079,15 +1084,15 @@
       <c r="M6" s="11"/>
     </row>
     <row r="7" spans="1:13" s="14" customFormat="1" ht="15.75">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
@@ -1134,11 +1139,11 @@
       <c r="B10" s="6"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1147,21 +1152,21 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43" t="s">
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="41" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="1"/>
@@ -1172,19 +1177,19 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" s="15" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="18" t="s">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1223,107 +1228,107 @@
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" ht="15.75">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="21" t="s">
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
     </row>
     <row r="16" spans="1:13" ht="15.75">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="42" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
     </row>
     <row r="17" spans="1:13" ht="62.25" customHeight="1">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
     </row>
     <row r="18" spans="1:13" ht="18.75">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
     </row>
     <row r="19" spans="1:13" ht="18.75">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
     </row>
     <row r="20" spans="1:13" ht="15.75">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="27" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="13"/>
@@ -1331,84 +1336,84 @@
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
     </row>
     <row r="21" spans="1:13" ht="15.75">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
-      <c r="E21" s="46" t="s">
+      <c r="E21" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
     </row>
     <row r="22" spans="1:13" ht="54.75" customHeight="1">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="44" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="45" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="45"/>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="38" t="s">
+      <c r="F22" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="38"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
     </row>
     <row r="23" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
     </row>
     <row r="24" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
     </row>
     <row r="25" spans="1:13" s="15" customFormat="1" ht="15.75">
       <c r="A25" s="6" t="s">
@@ -1418,10 +1423,10 @@
         <v>34</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1430,85 +1435,90 @@
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="15.75">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="42" t="s">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-    </row>
-    <row r="27" spans="1:13" s="32" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A27" s="39"/>
-      <c r="B27" s="43" t="s">
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+    </row>
+    <row r="27" spans="1:13" s="31" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A27" s="48"/>
+      <c r="B27" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="43"/>
-      <c r="D27" s="44" t="s">
+      <c r="C27" s="41"/>
+      <c r="D27" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="44"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-    </row>
-    <row r="28" spans="1:13" s="34" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A28" s="18" t="s">
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+    </row>
+    <row r="28" spans="1:13" s="33" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A28" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="18" t="s">
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="35" t="s">
+      <c r="F28" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="35"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
     </row>
     <row r="29" spans="1:13" customFormat="1" ht="16.5" customHeight="1"/>
     <row r="30" spans="1:13" customFormat="1" ht="15" customHeight="1"/>
     <row r="31" spans="1:13" ht="16.5">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="41" t="s">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="A1:C1"/>
@@ -1521,11 +1531,6 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/SMO/TemplateExcel/TONG_HOP_KE_HOACH_CHI_NHANH.xlsx
+++ b/SMO/TemplateExcel/TONG_HOP_KE_HOACH_CHI_NHANH.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A09797D-2906-472E-BC5D-7C0325033B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B5836C-7847-42C6-B15B-32DF53ED6988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7FDF6A2F-70B3-45E6-A041-9018DF3A571A}"/>
   </bookViews>
@@ -169,7 +169,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_ * #,##0.00_)_V_N_D_ ;_ * \(#,##0.00\)_V_N_D_ ;_ * &quot;-&quot;??_)_V_N_D_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,109 +191,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val=".VnTimeH"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Helv"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val=".VnTime"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val=".VnTime"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val=".VnTime"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -306,22 +203,15 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -340,7 +230,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -363,153 +253,147 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="11">
-    <cellStyle name="Comma 10" xfId="4" xr:uid="{C9075FA2-9E51-4AC7-8F9E-ED310151E9A6}"/>
-    <cellStyle name="Comma 6 3 2 3" xfId="3" xr:uid="{D4C3F91E-83E8-47B2-B1E1-00922150FC97}"/>
+  <cellStyles count="10">
+    <cellStyle name="Comma 10" xfId="3" xr:uid="{C9075FA2-9E51-4AC7-8F9E-ED310151E9A6}"/>
+    <cellStyle name="Comma 6 3 2 3" xfId="2" xr:uid="{D4C3F91E-83E8-47B2-B1E1-00922150FC97}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 100" xfId="1" xr:uid="{4C41DD47-0922-4DDF-9085-6BD14451FCCF}"/>
-    <cellStyle name="Normal 2 2 4" xfId="9" xr:uid="{9B51CB7E-EF96-4878-AFEF-C14B82852ABB}"/>
-    <cellStyle name="Normal 3" xfId="8" xr:uid="{0EBAA94A-F625-42BB-A51E-7F2F930F750F}"/>
-    <cellStyle name="Normal 42" xfId="10" xr:uid="{384A8619-B55E-4586-BB98-F369CC9A277C}"/>
-    <cellStyle name="Normal 57 4" xfId="7" xr:uid="{B51AF5FF-313C-41CF-AB72-436EB9AA1447}"/>
-    <cellStyle name="Normal 94" xfId="5" xr:uid="{F6882787-81F6-4C89-9641-D4B712F9493B}"/>
-    <cellStyle name="Normal 95" xfId="6" xr:uid="{4FCBF644-90F0-4284-B51C-57A66EF848E4}"/>
-    <cellStyle name="Normal_KHDonvi2014-Lụa 30.10.2013" xfId="2" xr:uid="{CD4EC60D-07C5-4A73-9683-BD71449ADE39}"/>
+    <cellStyle name="Normal 2 2 4" xfId="8" xr:uid="{9B51CB7E-EF96-4878-AFEF-C14B82852ABB}"/>
+    <cellStyle name="Normal 3" xfId="7" xr:uid="{0EBAA94A-F625-42BB-A51E-7F2F930F750F}"/>
+    <cellStyle name="Normal 42" xfId="9" xr:uid="{384A8619-B55E-4586-BB98-F369CC9A277C}"/>
+    <cellStyle name="Normal 57 4" xfId="6" xr:uid="{B51AF5FF-313C-41CF-AB72-436EB9AA1447}"/>
+    <cellStyle name="Normal 94" xfId="4" xr:uid="{F6882787-81F6-4C89-9641-D4B712F9493B}"/>
+    <cellStyle name="Normal 95" xfId="5" xr:uid="{4FCBF644-90F0-4284-B51C-57A66EF848E4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -534,13 +418,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>209549</xdr:rowOff>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
@@ -559,7 +443,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="352425" y="647699"/>
+          <a:off x="66675" y="581024"/>
           <a:ext cx="2790825" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -590,13 +474,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>685993</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>18183</xdr:rowOff>
+      <xdr:rowOff>18182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>202143</xdr:colOff>
+      <xdr:colOff>179809</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>19437</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -613,8 +497,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5115118" y="465858"/>
-          <a:ext cx="1516400" cy="867"/>
+          <a:off x="5113174" y="406958"/>
+          <a:ext cx="1491150" cy="1255"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -959,568 +843,295 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD1AA9C-3C0D-4E22-B736-6A0353A7B427}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="12" style="22" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="22" customWidth="1"/>
-    <col min="5" max="5" width="17" style="22" customWidth="1"/>
-    <col min="6" max="7" width="13" style="22" customWidth="1"/>
-    <col min="8" max="8" width="15" style="22" customWidth="1"/>
-    <col min="9" max="10" width="11.5703125" style="22"/>
-    <col min="11" max="11" width="7.5703125" style="22" customWidth="1"/>
-    <col min="12" max="16384" width="11.5703125" style="22"/>
+    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="1" customWidth="1"/>
+    <col min="9" max="10" width="11.5703125" style="1"/>
+    <col min="11" max="11" width="7.5703125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="E1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="15.75">
-      <c r="A2" s="6" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="8" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="E2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="15.75">
-      <c r="A3" s="9" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="15.75">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="21" customHeight="1">
-      <c r="A5" s="37" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="21" customHeight="1">
+      <c r="A5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" s="12" customFormat="1" ht="15.75">
-      <c r="A6" s="38" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-    </row>
-    <row r="7" spans="1:13" s="14" customFormat="1" ht="15.75">
-      <c r="A7" s="38" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-    </row>
-    <row r="8" spans="1:13" s="15" customFormat="1" ht="9" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="16" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:7" ht="9" customHeight="1"/>
+    <row r="9" spans="1:7" ht="21" customHeight="1">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" s="15" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="39" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="15.95" customHeight="1">
+      <c r="E10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A11" s="41" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" s="15" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42" t="s">
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" s="15" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" s="15" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75">
-      <c r="A15" s="18" t="s">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.95" customHeight="1"/>
+    <row r="14" spans="1:7" ht="15.95" customHeight="1"/>
+    <row r="15" spans="1:7" ht="15.95" customHeight="1"/>
+    <row r="16" spans="1:7" ht="15.95" customHeight="1">
+      <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="20" t="s">
+      <c r="G16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="34" t="s">
+    </row>
+    <row r="17" spans="1:7" ht="15.95" customHeight="1">
+      <c r="E17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-    </row>
-    <row r="17" spans="1:13" ht="62.25" customHeight="1">
-      <c r="A17" s="42" t="s">
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="43" t="s">
+      <c r="F18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="43" t="s">
+      <c r="G18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-    </row>
-    <row r="18" spans="1:13" ht="18.75">
-      <c r="A18" s="23"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-    </row>
-    <row r="19" spans="1:13" ht="18.75">
-      <c r="A19" s="23"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.75">
-      <c r="A20" s="26" t="s">
+    </row>
+    <row r="19" spans="1:7" ht="15.95" customHeight="1"/>
+    <row r="20" spans="1:7" ht="15.95" customHeight="1"/>
+    <row r="21" spans="1:7" ht="15.95" customHeight="1"/>
+    <row r="22" spans="1:7" ht="15.95" customHeight="1">
+      <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="35" t="s">
+    </row>
+    <row r="23" spans="1:7" ht="15.95" customHeight="1">
+      <c r="E23" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-    </row>
-    <row r="22" spans="1:13" ht="54.75" customHeight="1">
-      <c r="A22" s="44" t="s">
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="46" t="s">
+      <c r="C24" s="5"/>
+      <c r="D24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="44" t="s">
+      <c r="E24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="47" t="s">
+      <c r="F24" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="47"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-    </row>
-    <row r="23" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-    </row>
-    <row r="24" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-    </row>
-    <row r="25" spans="1:13" s="15" customFormat="1" ht="15.75">
-      <c r="A25" s="6" t="s">
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.95" customHeight="1"/>
+    <row r="26" spans="1:7" ht="15.95" customHeight="1"/>
+    <row r="27" spans="1:7" ht="15.95" customHeight="1"/>
+    <row r="28" spans="1:7" ht="15.95" customHeight="1">
+      <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="1:13" ht="15.75">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="34" t="s">
+    </row>
+    <row r="29" spans="1:7" ht="15.95" customHeight="1">
+      <c r="E29" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-    </row>
-    <row r="27" spans="1:13" s="31" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A27" s="48"/>
-      <c r="B27" s="41" t="s">
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1">
+      <c r="A30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="49" t="s">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-    </row>
-    <row r="28" spans="1:13" s="33" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A28" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="42" t="s">
+      <c r="E30" s="5"/>
+      <c r="F30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:7" ht="30" customHeight="1">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="E31" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="43"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-    </row>
-    <row r="29" spans="1:13" customFormat="1" ht="16.5" customHeight="1"/>
-    <row r="30" spans="1:13" customFormat="1" ht="15" customHeight="1"/>
-    <row r="31" spans="1:13" ht="16.5">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="40" t="s">
+      <c r="F31" s="8"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.95" customHeight="1"/>
+    <row r="33" spans="5:7" ht="15.95" customHeight="1"/>
+    <row r="34" spans="5:7" ht="15.95" customHeight="1"/>
+    <row r="35" spans="5:7" ht="15.95" customHeight="1">
+      <c r="E35" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-    </row>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="5:7" ht="15.95" customHeight="1"/>
+    <row r="37" spans="5:7" ht="15.95" customHeight="1"/>
+    <row r="38" spans="5:7" ht="15.95" customHeight="1"/>
+    <row r="39" spans="5:7" ht="15.95" customHeight="1"/>
+    <row r="40" spans="5:7" ht="15.95" customHeight="1"/>
+    <row r="41" spans="5:7" ht="15.95" customHeight="1"/>
+    <row r="42" spans="5:7" ht="15.95" customHeight="1"/>
+    <row r="43" spans="5:7" ht="15.95" customHeight="1"/>
+    <row r="44" spans="5:7" ht="15.95" customHeight="1"/>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E21:G21"/>
+  <mergeCells count="22">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E23:G23"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A6:G6"/>
@@ -1531,6 +1142,14 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="F30:G31"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="B30:C31"/>
+    <mergeCell ref="D30:E30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/SMO/TemplateExcel/TONG_HOP_KE_HOACH_CHI_NHANH.xlsx
+++ b/SMO/TemplateExcel/TONG_HOP_KE_HOACH_CHI_NHANH.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B5836C-7847-42C6-B15B-32DF53ED6988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4658DEF8-BA5E-4087-ABA1-6CCD3C6AC7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7FDF6A2F-70B3-45E6-A041-9018DF3A571A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TỔNG HỢP KẾ HOẠCH" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -230,7 +230,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -321,6 +321,15 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -336,19 +345,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -364,9 +397,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -374,13 +404,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -846,7 +870,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -865,16 +889,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="E1" s="15" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="E1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
@@ -882,11 +906,11 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
@@ -896,226 +920,262 @@
       <c r="C3" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="21" customHeight="1">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:7" ht="9" customHeight="1"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="9" spans="1:7" ht="21" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.95" customHeight="1">
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.95" customHeight="1"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.95" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
     <row r="14" spans="1:7" ht="15.95" customHeight="1"/>
     <row r="15" spans="1:7" ht="15.95" customHeight="1"/>
-    <row r="16" spans="1:7" ht="15.95" customHeight="1">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="21" t="s">
         <v>18</v>
       </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
       <c r="G16" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.95" customHeight="1">
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.95" customHeight="1"/>
+    <row r="19" spans="1:7" ht="15.95" customHeight="1">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
     <row r="20" spans="1:7" ht="15.95" customHeight="1"/>
     <row r="21" spans="1:7" ht="15.95" customHeight="1"/>
-    <row r="22" spans="1:7" ht="15.95" customHeight="1">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:7" ht="21" customHeight="1">
+      <c r="A22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="21" t="s">
         <v>28</v>
       </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
     </row>
     <row r="23" spans="1:7" ht="15.95" customHeight="1">
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="4" t="s">
+      <c r="C24" s="10"/>
+      <c r="D24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.95" customHeight="1"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.95" customHeight="1">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+    </row>
     <row r="26" spans="1:7" ht="15.95" customHeight="1"/>
     <row r="27" spans="1:7" ht="15.95" customHeight="1"/>
-    <row r="28" spans="1:7" ht="15.95" customHeight="1">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:7" ht="21" customHeight="1">
+      <c r="A28" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.95" customHeight="1">
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5" t="s">
+      <c r="C30" s="10"/>
+      <c r="D30" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="6" t="s">
+      <c r="E30" s="10"/>
+      <c r="F30" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="7"/>
+      <c r="G30" s="15"/>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="4" t="s">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" ht="15.95" customHeight="1"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="17"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.95" customHeight="1">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+    </row>
     <row r="33" spans="5:7" ht="15.95" customHeight="1"/>
     <row r="34" spans="5:7" ht="15.95" customHeight="1"/>
     <row r="35" spans="5:7" ht="15.95" customHeight="1">
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="5:7" ht="15.95" customHeight="1"/>
     <row r="37" spans="5:7" ht="15.95" customHeight="1"/>
@@ -1127,29 +1187,25 @@
     <row r="43" spans="5:7" ht="15.95" customHeight="1"/>
     <row r="44" spans="5:7" ht="15.95" customHeight="1"/>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="18">
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="F30:G31"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="B30:C31"/>
+    <mergeCell ref="D30:E30"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="F24:G24"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E23:G23"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:G7"/>
-    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E1:G1"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="F30:G31"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="B30:C31"/>
-    <mergeCell ref="D30:E30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
